--- a/WorkPeriod_template.xlsx
+++ b/WorkPeriod_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7C7DE-DAAF-47C8-B173-5F8A3D907DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4F809-47B1-4B1E-8ECB-B81A20407204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="15930" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1900" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,10 +434,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45074.25</v>
+        <v>45105.25</v>
       </c>
       <c r="E2" s="2">
-        <v>45074.6875</v>
+        <v>45105.6875</v>
       </c>
     </row>
   </sheetData>

--- a/WorkPeriod_template.xlsx
+++ b/WorkPeriod_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4F809-47B1-4B1E-8ECB-B81A20407204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7B030-46C1-4A0D-97ED-40AD2065A80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1900" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45105.25</v>
+        <v>45166.25</v>
       </c>
       <c r="E2" s="2">
-        <v>45105.6875</v>
+        <v>45166.6875</v>
       </c>
     </row>
   </sheetData>

--- a/WorkPeriod_template.xlsx
+++ b/WorkPeriod_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7B030-46C1-4A0D-97ED-40AD2065A80F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296A4AC-7FDE-4216-99C4-3FD529861D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1140" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45166.25</v>
+        <v>45197.25</v>
       </c>
       <c r="E2" s="2">
-        <v>45166.6875</v>
+        <v>45197.6875</v>
       </c>
     </row>
   </sheetData>
